--- a/reincarnator.xlsx
+++ b/reincarnator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doyle\Desktop\projects\concept25\concept25-Cillian-Doyle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334407E0-23B0-4046-996A-45F4330B92FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F432963C-92B5-4FD6-AC06-E49A97272183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B114BF61-C9F1-47F8-B51B-C5362F104DFD}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{B114BF61-C9F1-47F8-B51B-C5362F104DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,19 +629,19 @@
       <c r="B1" s="1"/>
       <c r="N1" s="10">
         <f>SUM(N4:N13)</f>
-        <v>0.25550000000000006</v>
+        <v>0.251</v>
       </c>
       <c r="O1" s="10">
         <f t="shared" ref="O1:Q1" si="0">SUM(O4:O13)</f>
-        <v>0.24750000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="P1" s="10">
         <f t="shared" si="0"/>
-        <v>0.2505</v>
+        <v>0.24600000000000002</v>
       </c>
       <c r="Q1" s="10">
         <f t="shared" si="0"/>
-        <v>0.24550000000000002</v>
+        <v>0.253</v>
       </c>
       <c r="S1" t="s">
         <v>0</v>
@@ -794,17 +794,17 @@
         <v>0.15</v>
       </c>
       <c r="I5" s="9">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="J5" s="9">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="K5" s="9">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" ref="L5:L13" si="4">IF(SUM(H5:K5)&lt;=1,SUM(H5:K5),"error")</f>
-        <v>0.995</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" ref="N5:N13" si="5">(H5*IF($M5&gt;0,$M5,$G5)/100)</f>
@@ -812,15 +812,15 @@
       </c>
       <c r="O5" s="8">
         <f t="shared" ref="O5:O13" si="6">(I5*IF($M5&gt;0,$M5,$G5)/100)</f>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="P5" s="8">
         <f t="shared" ref="P5:P13" si="7">(J5*IF($M5&gt;0,$M5,$G5)/100)</f>
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q5" s="8">
         <f t="shared" ref="Q5:Q13" si="8">(K5*IF($M5&gt;0,$M5,$G5)/100)</f>
-        <v>7.400000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -955,23 +955,25 @@
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H8" s="9">
-        <v>0.66</v>
+        <v>0.33</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9">
         <v>0.34</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="9">
+        <v>0.33</v>
+      </c>
       <c r="L8" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="5"/>
-        <v>6.6000000000000003E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" si="6"/>
@@ -979,11 +981,11 @@
       </c>
       <c r="P8" s="8">
         <f t="shared" si="7"/>
-        <v>3.4000000000000002E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1010,15 +1012,17 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9">
+        <v>0.15</v>
+      </c>
       <c r="I9" s="9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J9" s="9">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="K9" s="9">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="4"/>
@@ -1026,19 +1030,19 @@
       </c>
       <c r="N9" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O9" s="8">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="Q9" s="8">
         <f t="shared" si="8"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1109,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -1120,16 +1124,16 @@
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H11" s="9">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I11" s="9">
         <v>0.25</v>
       </c>
       <c r="J11" s="9">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="K11" s="9">
         <v>0.3</v>
@@ -1140,19 +1144,19 @@
       </c>
       <c r="N11" s="8">
         <f t="shared" si="5"/>
-        <v>1.4999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" si="6"/>
-        <v>2.5000000000000001E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="8"/>
-        <v>0.03</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
